--- a/0. 秋招资料/招聘信息汇总.xlsx
+++ b/0. 秋招资料/招聘信息汇总.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/0. 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10D245-772B-0849-BA13-DC5C378DD5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D2690-BAFA-4C41-BF56-B46BCB9E0747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="197">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,141 +553,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选-笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.ke.com/</t>
+  </si>
+  <si>
+    <t>Java开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inovance.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/home</t>
+  </si>
+  <si>
+    <t>引擎支持工程师/客户端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师(成都)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网-云音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/index</t>
+  </si>
+  <si>
+    <t>Java开发工程师(杭州)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招-后端开发工程师-整车研发（第二志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/sangfor/27944#/?anchorName=default_banner&amp;sourceToken=</t>
+  </si>
+  <si>
+    <t>筛选(提前批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python开发工程师（提前批 成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.mihoyo.com/#/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试（结束）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.cvte.com/zone/resume/applications</t>
+  </si>
+  <si>
+    <t>笔试(08-31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视源股份(提前批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web后台开发工程师 </t>
+  </si>
+  <si>
+    <t>9/10前测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://ke.zhiye.com/Portal/Apply/Index</t>
-  </si>
-  <si>
-    <t>贝壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选-笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://campus.ke.com/</t>
-  </si>
-  <si>
-    <t>Java开发工程师（北京）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://inovance.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历初筛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://game.campus.163.com/personal</t>
-  </si>
-  <si>
-    <t>https://game.campus.163.com/home</t>
-  </si>
-  <si>
-    <t>引擎支持工程师/客户端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/campus/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端工程师(成都)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一志愿挂
+二志愿筛选(笔试)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://campus.163.com/app/personal/apply</t>
-  </si>
-  <si>
-    <t>网易互联网-云音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.163.com/app/index</t>
-  </si>
-  <si>
-    <t>Java开发工程师(杭州)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://nio.jobs.feishu.cn/campus/position/application?spread=SAYV33H</t>
-  </si>
-  <si>
-    <t>校招-后端开发工程师-整车研发（第二志愿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深信服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/sangfor/27944#/?anchorName=default_banner&amp;sourceToken=</t>
-  </si>
-  <si>
-    <t>筛选(提前批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://app.mokahr.com/campus_apply/sangfor/27944#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t>Python开发工程师（提前批 成都）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.mihoyo.com/#/campus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选(提前批)- 笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://campus.mihoyo.com/#/campus/applyRecord</t>
-  </si>
-  <si>
-    <t>Java后端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.cvte.com/zone/resume/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>初筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/</t>
+  </si>
+  <si>
+    <t>三天内完成笔试()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-Java（深圳、武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.tp-link.com.cn/socialDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPLINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.tp-link.com.cn/</t>
+  </si>
+  <si>
+    <t>软件开发工程师-成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/?anchorName=default_banner&amp;sourceToken=</t>
-  </si>
-  <si>
-    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t>笔试（结束）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选（已处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.cvte.com/zone/resume/applications</t>
-  </si>
-  <si>
-    <t>笔试(08-31)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视源股份(提前批)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web后台开发工程师 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据研发工程师-DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -729,6 +825,15 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -793,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +939,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1926,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1935,7 +2052,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="49.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
@@ -2016,7 +2133,7 @@
         <v>44788</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>113</v>
@@ -2070,7 +2187,7 @@
         <v>44788</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>126</v>
@@ -2098,7 +2215,7 @@
         <v>44754</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
@@ -2122,7 +2239,7 @@
         <v>44788</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>121</v>
@@ -2171,8 +2288,8 @@
       <c r="C9" s="9">
         <v>44791</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>129</v>
+      <c r="D9" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>132</v>
@@ -2198,10 +2315,10 @@
         <v>44791</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>136</v>
@@ -2211,48 +2328,48 @@
       <c r="I10" s="9"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="46">
+    <row r="11" spans="1:10" ht="23">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9">
         <v>44791</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="46">
+    <row r="12" spans="1:10" ht="69">
       <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C12" s="9">
         <v>44792</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="9"/>
@@ -2273,82 +2390,82 @@
         <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="46">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="46">
+      <c r="A14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44792</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="46">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44792</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="46">
+      <c r="A16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="9">
-        <v>44792</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="46">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="9">
-        <v>44792</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="69">
-      <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C16" s="9">
         <v>44793</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="9"/>
@@ -2360,43 +2477,43 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C17" s="9">
         <v>44797</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="69">
+    <row r="18" spans="1:10" ht="46">
       <c r="A18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C18" s="9">
         <v>44797</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="9"/>
@@ -2405,71 +2522,119 @@
     </row>
     <row r="19" spans="1:10" ht="46">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C19" s="9">
         <v>44797</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="22">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="20" spans="1:10" ht="69">
+      <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="9">
+        <v>44802</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="22">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+    <row r="21" spans="1:10" ht="69">
+      <c r="A21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="9">
+        <v>44802</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+    <row r="22" spans="1:10" ht="23">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="9">
+        <v>44802</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="22">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="1:10" ht="34">
+      <c r="A23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="9">
+        <v>44802</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2555,6 +2720,18 @@
     <hyperlink ref="B17" r:id="rId15" location="/campus" xr:uid="{D8F58B25-FC40-4D4D-AE09-2339F2318B69}"/>
     <hyperlink ref="E8" r:id="rId16" xr:uid="{3FCD14E2-3D91-2445-92CD-4CE114D8A151}"/>
     <hyperlink ref="E9" r:id="rId17" location="/candidateHome/applications" xr:uid="{3EDE88CC-9364-4947-9430-80F6E2905C15}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{C3ED3E22-3F65-6D44-B158-558CAF77406F}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{E80F1C97-F4A0-DF4C-A0F7-38EDF5FF18D1}"/>
+    <hyperlink ref="E14" r:id="rId20" xr:uid="{F0AD5B4D-686C-F145-B4EF-4BAE44896A1B}"/>
+    <hyperlink ref="E15" r:id="rId21" xr:uid="{7523C21E-947F-A440-972B-23FAD9A66224}"/>
+    <hyperlink ref="E16" r:id="rId22" location="/candidateHome/applications" xr:uid="{6D006F6F-4264-8441-A62C-0BE020018446}"/>
+    <hyperlink ref="E17" r:id="rId23" location="/campus/applyRecord" xr:uid="{C1811825-4AE5-E941-9FCD-911D6DAAB224}"/>
+    <hyperlink ref="E19" r:id="rId24" xr:uid="{DA1D3AF9-A9B5-B44F-9918-DE2E18132D02}"/>
+    <hyperlink ref="E22" r:id="rId25" xr:uid="{5710217D-01E0-154C-A2C0-9635C2F9E1C9}"/>
+    <hyperlink ref="E18" r:id="rId26" location="/candidateHome/applications" xr:uid="{9FA26919-A7E5-9A48-BD0F-3CFECCDEC586}"/>
+    <hyperlink ref="B18" r:id="rId27" location="/?anchorName=default_banner&amp;sourceToken=" xr:uid="{73068D60-C0E2-2741-8493-C2F2A1B67F79}"/>
+    <hyperlink ref="E23" r:id="rId28" location="/candidateHome/applications" xr:uid="{F3779B92-72DE-FD42-B917-5CFBC6B8924E}"/>
+    <hyperlink ref="B23" r:id="rId29" location="/?anchorName=default_banner&amp;sourceToken=" xr:uid="{E63DAE58-CC76-F849-84C6-2453410BC7A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0. 秋招资料/招聘信息汇总.xlsx
+++ b/0. 秋招资料/招聘信息汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/0. 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D2690-BAFA-4C41-BF56-B46BCB9E0747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08101B0-5AAA-4F4B-A447-9D96D21AE9EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,10 +613,6 @@
     <t>https://app.mokahr.com/campus_apply/sangfor/27944#/?anchorName=default_banner&amp;sourceToken=</t>
   </si>
   <si>
-    <t>筛选(提前批)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Python开发工程师（提前批 成都）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -696,10 +692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>筛选(提前批)- 笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://campus.mihoyo.com/#/campus/applyRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,10 +732,6 @@
     <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/</t>
   </si>
   <si>
-    <t>三天内完成笔试()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件开发工程师-Java（深圳、武汉）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,6 +764,26 @@
   </si>
   <si>
     <t>正式批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试 09-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-05/09-06 面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选 (08-31 一轮面挂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天内完成测评()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初筛(09-01 笔试)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,12 +864,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,9 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -952,6 +951,15 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2043,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2122,35 +2130,35 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="46">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" s="19" customFormat="1" ht="46">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="16">
         <v>44788</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="16">
         <v>44774</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="16">
         <v>44803</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="46">
       <c r="A4" s="1" t="s">
@@ -2215,7 +2223,7 @@
         <v>44754</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
@@ -2239,7 +2247,7 @@
         <v>44788</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>121</v>
@@ -2278,31 +2286,31 @@
       <c r="I8" s="9"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="34">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" s="19" customFormat="1" ht="34">
+      <c r="A9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="16">
         <v>44791</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="23">
       <c r="A10" s="1" t="s">
@@ -2315,7 +2323,7 @@
         <v>44791</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>142</v>
@@ -2339,10 +2347,10 @@
         <v>44791</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>141</v>
@@ -2352,7 +2360,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="69">
+    <row r="12" spans="1:10" ht="46">
       <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
@@ -2363,10 +2371,10 @@
         <v>44792</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>145</v>
@@ -2400,7 +2408,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="46">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="46">
       <c r="A14" s="10" t="s">
         <v>148</v>
       </c>
@@ -2411,10 +2419,10 @@
         <v>44792</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="14" t="s">
         <v>170</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>150</v>
@@ -2435,10 +2443,10 @@
         <v>44792</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="16" t="s">
         <v>172</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>151</v>
@@ -2459,13 +2467,13 @@
         <v>44793</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="9"/>
@@ -2477,91 +2485,91 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="9">
         <v>44797</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="46">
-      <c r="A18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="9">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="46">
+      <c r="A18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="11">
         <v>44797</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="46">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" s="19" customFormat="1" ht="46">
+      <c r="A19" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="16">
+        <v>44797</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="9">
-        <v>44797</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="69">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="9">
         <v>44802</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
@@ -2570,22 +2578,22 @@
     </row>
     <row r="21" spans="1:10" ht="69">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="9">
         <v>44802</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -2594,22 +2602,22 @@
     </row>
     <row r="22" spans="1:10" ht="23">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" s="9">
         <v>44802</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
@@ -2618,19 +2626,19 @@
     </row>
     <row r="23" spans="1:10" ht="34">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="9">
         <v>44802</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>150</v>

--- a/0. 秋招资料/招聘信息汇总.xlsx
+++ b/0. 秋招资料/招聘信息汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/0. 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08101B0-5AAA-4F4B-A447-9D96D21AE9EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2123043-1D54-F24B-A546-2988E7BA2991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="202">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +785,16 @@
   <si>
     <t>初筛(09-01 笔试)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/myDelivery.html</t>
+  </si>
+  <si>
+    <t>应用软件开发工程师（西安市）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.sensetime.com/SU604c56f9bef57c3d1a752c60/pb/account.html#/myDeliver</t>
   </si>
 </sst>
 </file>
@@ -2051,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2648,25 +2658,49 @@
       <c r="I23" s="9"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="22">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="1:10" ht="46">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44812</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="22">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="25" spans="1:10" ht="69">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="9">
+        <v>44812</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>

--- a/0. 秋招资料/招聘信息汇总.xlsx
+++ b/0. 秋招资料/招聘信息汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/0. 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2123043-1D54-F24B-A546-2988E7BA2991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62C738-6205-3944-9C55-C492D831D961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
+    <workbookView xWindow="9600" yWindow="3600" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
   <sheets>
     <sheet name="信息汇总" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,79 +722,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/</t>
+  </si>
+  <si>
+    <t>软件开发工程师-Java（深圳、武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.tp-link.com.cn/socialDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPLINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.tp-link.com.cn/</t>
+  </si>
+  <si>
+    <t>软件开发工程师-成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/?anchorName=default_banner&amp;sourceToken=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据研发工程师-DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试 09-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-05/09-06 面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选 (08-31 一轮面挂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天内完成测评()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初筛(09-01 笔试)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/myDelivery.html</t>
+  </si>
+  <si>
+    <t>应用软件开发工程师（西安市）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.sensetime.com/SU604c56f9bef57c3d1a752c60/pb/account.html#/myDeliver</t>
+  </si>
+  <si>
+    <t>https://lilithgames.jobs.feishu.cn/campus</t>
+  </si>
+  <si>
+    <t>https://lilithgames.jobs.feishu.cn/campus/position/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲盒岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/6cloudtech/29141?sourceToken=f6811872d0308a4510cda5a7772ca54b#/</t>
+  </si>
+  <si>
+    <t>六方云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/6cloudtech/29141?sourceToken=f6811872d0308a4510cda5a7772ca54b#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=99690&amp;rnum=CC000996906&amp;taskId=false&amp;productId=7&amp;channelId=false&amp;scjobs=CC000996906J00101538122</t>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技信息岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.byd.com/zpweb/zpweb/planList.do?actPara=wishList</t>
+  </si>
+  <si>
+    <t>随机投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t>小米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/</t>
-  </si>
-  <si>
-    <t>软件开发工程师-Java（深圳、武汉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr.tp-link.com.cn/socialDelivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPLINK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr.tp-link.com.cn/</t>
-  </si>
-  <si>
-    <t>软件开发工程师-成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/candidateHome/applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/?anchorName=default_banner&amp;sourceToken=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据研发工程师-DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试 09-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09-05/09-06 面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选 (08-31 一轮面挂)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三天内完成测评()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初筛(09-01 笔试)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campushr.hikvision.com/myDelivery.html</t>
-  </si>
-  <si>
-    <t>应用软件开发工程师（西安市）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr.sensetime.com/SU604c56f9bef57c3d1a752c60/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://momenta.jobs.feishu.cn/campus/position/application?spread=4NR5TT8</t>
+  </si>
+  <si>
+    <t>https://momenta.jobs.feishu.cn/campus/?spread=4NR5TT8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发(Java)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2059,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2151,7 +2211,7 @@
         <v>44788</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>113</v>
@@ -2477,7 +2537,7 @@
         <v>44793</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>173</v>
@@ -2519,19 +2579,19 @@
         <v>157</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="11">
         <v>44797</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
@@ -2573,7 +2633,7 @@
         <v>44802</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>178</v>
@@ -2586,24 +2646,24 @@
       <c r="I20" s="9"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="69">
+    <row r="21" spans="1:10" ht="46">
       <c r="A21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C21" s="9">
         <v>44802</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -2612,10 +2672,10 @@
     </row>
     <row r="22" spans="1:10" ht="23">
       <c r="A22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C22" s="9">
         <v>44802</v>
@@ -2624,10 +2684,10 @@
         <v>179</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
@@ -2639,16 +2699,16 @@
         <v>157</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="9">
         <v>44802</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>150</v>
@@ -2669,13 +2729,13 @@
         <v>44812</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="9"/>
@@ -2693,10 +2753,10 @@
         <v>44812</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>181</v>
@@ -2706,41 +2766,114 @@
       <c r="I25" s="9"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="22">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:10" ht="34">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="9">
+        <v>44812</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="22">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    <row r="27" spans="1:10" ht="51">
+      <c r="A27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44812</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="22">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+    <row r="28" spans="1:10" ht="69">
+      <c r="A28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="9">
+        <v>44820</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="46">
+      <c r="A29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44825</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="23">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2774,6 +2907,11 @@
     <hyperlink ref="B18" r:id="rId27" location="/?anchorName=default_banner&amp;sourceToken=" xr:uid="{73068D60-C0E2-2741-8493-C2F2A1B67F79}"/>
     <hyperlink ref="E23" r:id="rId28" location="/candidateHome/applications" xr:uid="{F3779B92-72DE-FD42-B917-5CFBC6B8924E}"/>
     <hyperlink ref="B23" r:id="rId29" location="/?anchorName=default_banner&amp;sourceToken=" xr:uid="{E63DAE58-CC76-F849-84C6-2453410BC7A1}"/>
+    <hyperlink ref="E26" r:id="rId30" xr:uid="{1CF651D9-AB5E-4048-B63B-BD8BB1CFC472}"/>
+    <hyperlink ref="E27" r:id="rId31" location="/candidateHome/applications" xr:uid="{B035D034-B088-664F-A851-CEA32BCE6B2F}"/>
+    <hyperlink ref="E28" r:id="rId32" xr:uid="{3AC54528-3ED5-C548-AF7E-07D95D4E905B}"/>
+    <hyperlink ref="E21" r:id="rId33" location="/candidateHome/applications" xr:uid="{37489100-4DD6-624E-B463-5DA11C5D9E41}"/>
+    <hyperlink ref="B30" r:id="rId34" xr:uid="{9A64B497-3595-6141-99E7-9172FB96C522}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
